--- a/biology/Botanique/Stanleya_pinnata/Stanleya_pinnata.xlsx
+++ b/biology/Botanique/Stanleya_pinnata/Stanleya_pinnata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanleya pinnata est une espèce de plante à fleurs de la famille des Brassicaceae, originaire de l'ouest des États-Unis, connue sous le nom commun de Plume du Prince.
 </t>
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée mesure de 45 à 150 cm de hauteur[1]. Les tiges sont fortes, lisses, et de couleur un peu bleutée. Elles sont garnies de feuilles plus grandes à la base (jusqu'à 15 cm de longueur) qu'au sommet, de forme générale lancéolée mais fortement pennatifide.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée mesure de 45 à 150 cm de hauteur. Les tiges sont fortes, lisses, et de couleur un peu bleutée. Elles sont garnies de feuilles plus grandes à la base (jusqu'à 15 cm de longueur) qu'au sommet, de forme générale lancéolée mais fortement pennatifide.
 Il ne faut pas confondre Stanleya pinnata avec Stanleya albescens, dont les fleurs sont blanches.
-Appareil reproducteur
-La floraison a lieu de mai à juillet.
-L'inflorescence est une grappe dense de fleurs jaunes située à l'extrémité de tiges. Chaque fleur possède 4 sépales jaunes et 4 pétales jaunes de 9 à 15 mm de longueur, fortement velus sur la partie interne de leur base, qui est de couleur plus brunâtre.
-Le fruit est une capsule très mince de 3 à 6,5 cm de longueur, portée par un pétiole très mince ayant lui-même de 1 à 2 cm de longueur[1].
 </t>
         </is>
       </c>
@@ -545,10 +558,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mai à juillet.
+L'inflorescence est une grappe dense de fleurs jaunes située à l'extrémité de tiges. Chaque fleur possède 4 sépales jaunes et 4 pétales jaunes de 9 à 15 mm de longueur, fortement velus sur la partie interne de leur base, qui est de couleur plus brunâtre.
+Le fruit est une capsule très mince de 3 à 6,5 cm de longueur, portée par un pétiole très mince ayant lui-même de 1 à 2 cm de longueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stanleya_pinnata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stanleya_pinnata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vit dans les plaines et désert, mais aussi en basse montagne, souvent en association avec Artemisia tridentata, dans le sud-ouest des États-Unis. Son aire de répartition s'étend, à l'ouest, du sud de l'Oregon jusqu'en Californie, et à l'est du Dakota du Nord jusqu'au Texas.
 </t>
